--- a/biology/Mycologie/Thelephorales/Thelephorales.xlsx
+++ b/biology/Mycologie/Thelephorales/Thelephorales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thelephorales sont un ordre de champignons basidiomycètes dans la classe des agaricomycètes. C'est dans cet ordre que l'on rencontre en Europe les Sarcodons.
 </t>
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Thelephorales ou clade telephoroïde[1] comprend des corticioïdes et des champignons hydnoïdes, avec quelques polypores et espèces clavarioïde. Tous les champignons de l'ordre des Thelephorales sont ectomycorhiziens. Peu ont une importance économique, mais le Sarcodon est comestible et parfois commercialisé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Thelephorales ou clade telephoroïde comprend des corticioïdes et des champignons hydnoïdes, avec quelques polypores et espèces clavarioïde. Tous les champignons de l'ordre des Thelephorales sont ectomycorhiziens. Peu ont une importance économique, mais le Sarcodon est comestible et parfois commercialisé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Les origines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que l'ordre des Thelephorales avait déjà été mentionnés par EJH Corner en 1968[2], l'ordre n'a été officiellement publiée qu'en 1976, lorsque l'allemand mycologue Franz Oberwinkler décrit en premier comme englobant les familles Thelephoraceae et Bankeraceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que l'ordre des Thelephorales avait déjà été mentionnés par EJH Corner en 1968, l'ordre n'a été officiellement publiée qu'en 1976, lorsque l'allemand mycologue Franz Oberwinkler décrit en premier comme englobant les familles Thelephoraceae et Bankeraceae.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Situation actuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La recherche moléculaire, basée sur l'analyse cladistique des séquences d'ADN, confirme le concept morphologique des Thelephorales, indiquant que l'ordre forme un groupe distinct au sein des Agaricomycètes, et proche des Polyporales[3],[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche moléculaire, basée sur l'analyse cladistique des séquences d'ADN, confirme le concept morphologique des Thelephorales, indiquant que l'ordre forme un groupe distinct au sein des Agaricomycètes, et proche des Polyporales,
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Habitat et de la distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tous les champignons de l'ordre sont ectomycorhiziens, formant des associations mutuellement bénéfiques avec les racines des arbres vivants. La répartition des Thelephorales est cosmopolite. Selon une estimation de 2008, l'ordre contient 18 genres et près de 250 espèces dans le monde[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les champignons de l'ordre sont ectomycorhiziens, formant des associations mutuellement bénéfiques avec les racines des arbres vivants. La répartition des Thelephorales est cosmopolite. Selon une estimation de 2008, l'ordre contient 18 genres et près de 250 espèces dans le monde.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Phylogramme des Thelephorales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricomycetes
@@ -678,15 +700,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Famille des Bankeraceae
-genre Bankera
+          <t>Famille des Bankeraceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>genre Bankera
 genre Boletopsis
 genre Corneroporus
 genre Hydnellum
 genre Phellodon
-genre Sarcodon
-Famille des Thelephoraceae
-genre Amaurodon
+genre Sarcodon</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Thelephorales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thelephorales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxonomie des Thelephorales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Famille des Thelephoraceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>genre Amaurodon
 genre Botryobasidium
 genre Entolomina
 genre Gymnoderma
@@ -702,9 +763,43 @@
 genre Thelephora
 genre Tomentella
 genre Tomentellastrum
-genre Tomentellopsis
-Famille incertae sedis
-genre Bubacia
+genre Tomentellopsis</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Thelephorales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thelephorales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxonomie des Thelephorales</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Famille incertae sedis</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>genre Bubacia
 genre Thelephorella</t>
         </is>
       </c>
